--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzlco\Desktop\streamlit\COVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AC557E-4ABD-494C-AAF3-C937AA838F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2531C0-7329-4262-902F-1C7F3A6EAC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4950" windowWidth="28185" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Sample</t>
   </si>
@@ -42,66 +42,27 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>NHBE_Mock</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>NHBE_SARS_CoV_2</t>
   </si>
   <si>
-    <t>Case</t>
-  </si>
-  <si>
     <t>NHBE_IAV</t>
   </si>
   <si>
-    <t>NHBE_IFNB_4h</t>
-  </si>
-  <si>
-    <t>NHBE_IFNB_6h</t>
-  </si>
-  <si>
-    <t>NHBE_IFNB_12h</t>
-  </si>
-  <si>
-    <t>A549_Mock</t>
-  </si>
-  <si>
     <t>A549_RSV</t>
   </si>
   <si>
     <t>A549_IAV</t>
   </si>
   <si>
-    <t>A549_ACE2_Mock</t>
-  </si>
-  <si>
     <t>A549_HPIV3</t>
   </si>
   <si>
-    <t>Calu3_Mock</t>
-  </si>
-  <si>
-    <t>HealthyLungBiopsy</t>
-  </si>
-  <si>
-    <t>COVID19 patient samples: Uninfected human lung biopsies were derived from one male (age 72) and one female (age 60) and used as biological replicates.</t>
-  </si>
-  <si>
     <t>The lung samples derived from a single male COVID19 deceased patient (age 74) were processed in technical replicates.</t>
   </si>
   <si>
-    <t>Infected with SARS-CoV-2 (USA-WA1/2020)</t>
-  </si>
-  <si>
     <t>Infected with IAV (A/Puerto Rico/8/1934 (H1N1)).</t>
   </si>
   <si>
@@ -117,30 +78,18 @@
     <t>Treated with human interferon-beta for 12 hours.</t>
   </si>
   <si>
-    <t>Independent biological triplicates of transformed lung alveolar (A549) cells were mock treated.</t>
-  </si>
-  <si>
-    <t>Independent biological triplicates of primary human lung epithelium (NHBE) were mock treated.</t>
-  </si>
-  <si>
     <t>Infected with SARS-CoV-2 (USA-WA1/2020).</t>
   </si>
   <si>
     <t xml:space="preserve">Infected with RSV (A2 strain). </t>
   </si>
   <si>
-    <t>Independent biological triplicates of transformed lung alveolar (A549) transduced with a vector expressing human ACE2 were mock treated.</t>
-  </si>
-  <si>
     <t>Infected with HPIV3.</t>
   </si>
   <si>
     <t>Pre-treated with Ruxolitinib (500 nM).</t>
   </si>
   <si>
-    <t xml:space="preserve">The transformed lung-derived Calu-3 cells were mock treated. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The transformed lung-derived Calu-3 cells were infected with SARS-CoV-2 (USA-WA1/2020). </t>
   </si>
   <si>
@@ -217,6 +166,15 @@
   </si>
   <si>
     <t>PAGER-WikiPathway</t>
+  </si>
+  <si>
+    <t>NHBE_IAV_IFNB_4h</t>
+  </si>
+  <si>
+    <t>NHBE_IAV_IFNB_6h</t>
+  </si>
+  <si>
+    <t>NHBE_IAV_IFNB_12h</t>
   </si>
 </sst>
 </file>
@@ -602,24 +560,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,359 +586,238 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3">
-        <v>6</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="3">
-        <v>6</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="G17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,7 +849,7 @@
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4">
         <v>49</v>
@@ -1023,7 +859,7 @@
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -1033,7 +869,7 @@
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>1888</v>
@@ -1043,7 +879,7 @@
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
         <v>1030</v>
@@ -1053,7 +889,7 @@
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -1063,7 +899,7 @@
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>79</v>
@@ -1073,7 +909,7 @@
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <v>390</v>
@@ -1083,7 +919,7 @@
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>38</v>
@@ -1092,10 +928,10 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4">
         <v>6139</v>
@@ -1107,7 +943,7 @@
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4">
         <v>13</v>
@@ -1117,7 +953,7 @@
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1127,7 +963,7 @@
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>82</v>
@@ -1137,7 +973,7 @@
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
@@ -1147,7 +983,7 @@
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <v>57</v>
@@ -1157,7 +993,7 @@
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <v>30</v>
@@ -1167,7 +1003,7 @@
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4">
         <v>25</v>
@@ -1177,7 +1013,7 @@
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -1187,7 +1023,7 @@
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzlco\Desktop\streamlit\COVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2531C0-7329-4262-902F-1C7F3A6EAC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC92E9-17AE-4B24-9228-C3421F212B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Sample</t>
   </si>
@@ -175,13 +175,31 @@
   </si>
   <si>
     <t>NHBE_IAV_IFNB_12h</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Infected with RSV (A2 strain).</t>
+  </si>
+  <si>
+    <t>A549_SARS_CoV_2_dup</t>
+  </si>
+  <si>
+    <t>A549_ACE2_SARS_CoV_2_dup</t>
+  </si>
+  <si>
+    <t>A549_RSV_dup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +232,33 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.4"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.4"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF262730"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF262730"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -264,9 +309,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,6 +322,28 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,263 +626,347 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="49.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="D26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -837,8 +987,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
         <v>105</v>
       </c>
       <c r="E1">
@@ -847,185 +997,185 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>49</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1888</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1030</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>79</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>390</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>38</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6139</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>10015</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>13</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>82</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>57</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>30</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>25</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>10</v>
       </c>
     </row>
